--- a/src/test/resources/testScriptData.xlsx
+++ b/src/test/resources/testScriptData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Qspider\vtiger-crm-framework-A11\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF142C-7869-4FA4-BA80-BE0A8FB668F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED6BCEA-D10D-4D97-9ECD-D32A300711AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
+    <sheet name="Sruti" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,26 +26,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>Wipro</t>
-  </si>
-  <si>
-    <t>Infosys</t>
+    <t>Organization name</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Wipro_</t>
+  </si>
+  <si>
+    <t>Tcs_</t>
+  </si>
+  <si>
+    <t>Gokuldham_</t>
+  </si>
+  <si>
+    <t>Facebook_</t>
+  </si>
+  <si>
+    <t>Instagram_</t>
+  </si>
+  <si>
+    <t>Pubg_</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Powder Gali</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>Jethalal</t>
+  </si>
+  <si>
+    <t>ChamapkLal</t>
+  </si>
+  <si>
+    <t>Bhide</t>
+  </si>
+  <si>
+    <t>Tapu</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,10 +156,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,32 +447,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9870</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9856345123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5678</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9875674321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2345</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5673452908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6890</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1630936789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12478</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2890134568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8765</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7289015637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0611089D-0FB2-4780-B396-A3D721D3D631}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>890</v>
       </c>
     </row>
   </sheetData>
